--- a/src/test/resources/testData/test.xlsx
+++ b/src/test/resources/testData/test.xlsx
@@ -13,10 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
-  <si>
-    <t>querySongByArtist</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -85,9 +82,6 @@
   </si>
   <si>
     <t>Grav</t>
-  </si>
-  <si>
-    <t>getKoelUserPlaylists</t>
   </si>
   <si>
     <t>email</t>
@@ -242,87 +236,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="J2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="K2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="L2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>23</v>
       </c>
       <c r="N2" s="0"/>
     </row>
@@ -354,123 +348,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>36</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>36</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>36</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K4" s="0"/>
     </row>
